--- a/Lab 1/Lab1.3/Requirements Stakeholder Traceability Matrix.xlsx
+++ b/Lab 1/Lab1.3/Requirements Stakeholder Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\SE357-Pratice-class\Lab 1\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC756A4-F1B9-4040-99BB-86EE306D4D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4D436-938C-49A8-8A5D-87AE8CDC3C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBAD75FC-D4CA-4794-B1B7-06BC92A3366B}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,15 +114,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="13"/>
       <color rgb="FF111111"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF111111"/>
-      <name val="Roboto"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,17 +149,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,218 +496,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79685DBA-6DA3-4C30-A6E8-A69C1C4E64D4}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="38" style="1"/>
+    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="38" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -690,6 +719,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100A30F3884CD43244294355762AE14FDC0" ma:contentTypeVersion="12" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="ca9c23a9b787f5b875bf6fab53638514">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8b53866-fdfd-416a-aee2-e50c3ae941dd" xmlns:ns4="9d433cf1-fba1-428a-9634-baf48b90bf9f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ebdf0c551eb3577469cb8a0717047c4e" ns3:_="" ns4:_="">
     <xsd:import namespace="c8b53866-fdfd-416a-aee2-e50c3ae941dd"/>
@@ -904,15 +942,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -922,6 +951,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3905992-40A4-48F9-BB8A-E3879399686A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9447E17-506C-4885-A125-87B01F56E855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -940,14 +977,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3905992-40A4-48F9-BB8A-E3879399686A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BCBE53C-D343-4DB0-82D6-97165533658F}">
   <ds:schemaRefs>
